--- a/SQL/Analysis/Count_of_distinct_values_per_case_column/distinct_values_per_case_column.xlsx
+++ b/SQL/Analysis/Count_of_distinct_values_per_case_column/distinct_values_per_case_column.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D00ADC-DA99-44ED-B36E-B55CF4CE108D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907A5463-6558-4B63-B587-A95E4B830AC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="4155" windowWidth="28785" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -402,22 +402,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -467,7 +467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>189584</v>
       </c>
@@ -517,12 +517,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -530,138 +530,138 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>55994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
         <v>0</v>
       </c>
-      <c r="B9">
+      <c r="B24">
         <v>189584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>55994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A8:B8" xr:uid="{C347D0D3-F0CC-4F6B-9221-A660D77D7D9A}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:B24">
-      <sortCondition descending="1" ref="B8"/>
+      <sortCondition ref="B8"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
